--- a/Python/output/case-study/trans-SA-FA-KPI-2.xlsx
+++ b/Python/output/case-study/trans-SA-FA-KPI-2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE05E613-CD02-7646-ACB4-4BF9DF3231CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="6140" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="7140" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="Penalty_SA_FAresults-KPI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -899,11 +898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,13 +926,13 @@
         <v>0.25</v>
       </c>
       <c r="B2">
-        <v>42513.1734527312</v>
+        <v>84666.358663243998</v>
       </c>
       <c r="C2">
-        <v>33118.949563653397</v>
+        <v>61150.869842430897</v>
       </c>
       <c r="D2">
-        <v>2544.5345776603399</v>
+        <v>342.99568113491699</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -941,13 +940,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>51034.926623059298</v>
+        <v>82856.030387143095</v>
       </c>
       <c r="C3">
-        <v>46262.082057428001</v>
+        <v>59413.831379038602</v>
       </c>
       <c r="D3">
-        <v>1086.46838883687</v>
+        <v>416.28549384412503</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -955,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>57112.915270917998</v>
+        <v>80743.654556177498</v>
       </c>
       <c r="C4">
-        <v>56454.975324331201</v>
+        <v>57316.646779459297</v>
       </c>
       <c r="D4">
-        <v>604.96069714873897</v>
+        <v>431.47672523089102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -969,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>63007.909681115802</v>
+        <v>76958.598795020604</v>
       </c>
       <c r="C5">
-        <v>68562.771937708501</v>
+        <v>53635.017615921402</v>
       </c>
       <c r="D5">
-        <v>317.52897093294598</v>
+        <v>534.90332284982401</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -983,13 +982,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67367.497565674304</v>
+        <v>70847.511616987496</v>
       </c>
       <c r="C6">
-        <v>76588.465222119106</v>
+        <v>47786.348328721302</v>
       </c>
       <c r="D6">
-        <v>194.49880903383101</v>
+        <v>797.32121368105697</v>
       </c>
     </row>
   </sheetData>
